--- a/master_log_2_point_method_and_birdsview_for_collected_dataset.xlsx
+++ b/master_log_2_point_method_and_birdsview_for_collected_dataset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -112,7 +112,7 @@
     <t xml:space="preserve">br_y</t>
   </si>
   <si>
-    <t xml:space="preserve">Predicted (m)</t>
+    <t xml:space="preserve">Predicted Ahead(m)</t>
   </si>
   <si>
     <t xml:space="preserve">Actual (m)</t>
@@ -325,25 +325,25 @@
   </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3979591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="29.6275510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.4132653061224"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.2295918367347"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.7448979591837"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.3979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="29.1581632653061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="72.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -379,6 +379,10 @@
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -410,6 +414,10 @@
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
@@ -441,6 +449,10 @@
       <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -472,6 +484,25 @@
       <c r="I5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -503,6 +534,10 @@
       <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -534,6 +569,10 @@
       <c r="I8" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
@@ -565,11 +604,57 @@
       <c r="I9" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="M10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="74.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -775,6 +860,51 @@
       <c r="M17" s="1" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0"/>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0"/>
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
+      <c r="M20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
